--- a/Data analysis/Data management/Data/Assen_sectors.xlsx
+++ b/Data analysis/Data management/Data/Assen_sectors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\Documents\GitHub\Nova_VD\Data analysis\Data management\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D610BD-603B-4220-9FC8-E315F8C09986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0028C0-4EBA-4AA0-8B40-07412342B4BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5064" xr2:uid="{64589518-327C-4CC7-9A91-3A8646311A39}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3783C26-1E80-47B8-BC46-00F10DB663C3}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,16 +543,16 @@
         <v>6.5242110000000002</v>
       </c>
       <c r="G2">
+        <v>52.96443</v>
+      </c>
+      <c r="H2">
+        <v>6.5287059999999997</v>
+      </c>
+      <c r="I2">
         <v>52.964556000000002</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>6.5284500000000003</v>
-      </c>
-      <c r="I2">
-        <v>52.96443</v>
-      </c>
-      <c r="J2">
-        <v>6.5287059999999997</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>52.964258000000001</v>
       </c>
       <c r="H3">
-        <v>6.8297829999999999</v>
+        <v>6.5297830000000001</v>
       </c>
       <c r="I3">
         <v>52.964418000000002</v>
